--- a/spliced/falling/2023-03-25_18-01-37/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-37/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.475497364997865</v>
+        <v>-2.025566756725311</v>
       </c>
       <c r="B2" t="n">
-        <v>3.523229420185089</v>
+        <v>3.52062651515007</v>
       </c>
       <c r="C2" t="n">
-        <v>2.537566900253297</v>
+        <v>2.27691987156868</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.48767375946045</v>
+        <v>-2.230706214904786</v>
       </c>
       <c r="B3" t="n">
-        <v>3.061535835266112</v>
+        <v>3.561713695526123</v>
       </c>
       <c r="C3" t="n">
-        <v>3.86157149076462</v>
+        <v>2.031704187393189</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.442349374294281</v>
+        <v>-2.475497364997865</v>
       </c>
       <c r="B4" t="n">
-        <v>2.902286112308502</v>
+        <v>3.523229420185089</v>
       </c>
       <c r="C4" t="n">
-        <v>4.137762367725372</v>
+        <v>2.537566900253297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.809046030044556</v>
+        <v>-2.48767375946045</v>
       </c>
       <c r="B5" t="n">
-        <v>1.600962877273557</v>
+        <v>3.061535835266112</v>
       </c>
       <c r="C5" t="n">
-        <v>4.795935153961183</v>
+        <v>3.86157149076462</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-3.426159977912904</v>
+        <v>-2.442349374294281</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.2882512211799662</v>
+        <v>2.902286112308502</v>
       </c>
       <c r="C6" t="n">
-        <v>5.237384021282194</v>
+        <v>4.137762367725372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.615099787712106</v>
+        <v>-2.809046030044556</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4410536289215286</v>
+        <v>1.600962877273557</v>
       </c>
       <c r="C7" t="n">
-        <v>4.911977410316469</v>
+        <v>4.795935153961183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.570275843143422</v>
+        <v>-3.426159977912904</v>
       </c>
       <c r="B8" t="n">
-        <v>5.792195498943334</v>
+        <v>-0.2882512211799662</v>
       </c>
       <c r="C8" t="n">
-        <v>7.507518291473446</v>
+        <v>5.237384021282194</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.738878250122034</v>
+        <v>-4.615099787712106</v>
       </c>
       <c r="B9" t="n">
-        <v>7.207733154296871</v>
+        <v>0.4410536289215286</v>
       </c>
       <c r="C9" t="n">
-        <v>21.9623451232909</v>
+        <v>4.911977410316469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-3.471131086349493</v>
+        <v>-5.570275843143422</v>
       </c>
       <c r="B10" t="n">
-        <v>6.420480489730835</v>
+        <v>5.792195498943334</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.152171969413772</v>
+        <v>7.507518291473446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.357546925544736</v>
+        <v>4.738878250122034</v>
       </c>
       <c r="B11" t="n">
-        <v>3.453876137733455</v>
+        <v>7.207733154296871</v>
       </c>
       <c r="C11" t="n">
-        <v>3.317040443420424</v>
+        <v>21.9623451232909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.1309916377067535</v>
+        <v>-3.471131086349493</v>
       </c>
       <c r="B12" t="n">
-        <v>3.795689940452578</v>
+        <v>6.420480489730835</v>
       </c>
       <c r="C12" t="n">
-        <v>3.876870155334465</v>
+        <v>-4.152171969413772</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2815589904785198</v>
+        <v>-2.357546925544736</v>
       </c>
       <c r="B13" t="n">
-        <v>4.85230040550232</v>
+        <v>3.453876137733455</v>
       </c>
       <c r="C13" t="n">
-        <v>2.205311059951784</v>
+        <v>3.317040443420424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.535586237907411</v>
+        <v>-0.1309916377067535</v>
       </c>
       <c r="B14" t="n">
-        <v>4.95532476902008</v>
+        <v>3.795689940452578</v>
       </c>
       <c r="C14" t="n">
-        <v>1.937351673841474</v>
+        <v>3.876870155334465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1.377771139144897</v>
+        <v>-0.2815589904785198</v>
       </c>
       <c r="B15" t="n">
-        <v>4.249351501464844</v>
+        <v>4.85230040550232</v>
       </c>
       <c r="C15" t="n">
-        <v>1.058028712868691</v>
+        <v>2.205311059951784</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.1868795156478872</v>
+        <v>-1.535586237907411</v>
       </c>
       <c r="B16" t="n">
-        <v>3.352623224258432</v>
+        <v>4.95532476902008</v>
       </c>
       <c r="C16" t="n">
-        <v>1.056536458432678</v>
+        <v>1.937351673841474</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.04321670532226736</v>
+        <v>-1.377771139144897</v>
       </c>
       <c r="B17" t="n">
-        <v>5.682518005371086</v>
+        <v>4.249351501464844</v>
       </c>
       <c r="C17" t="n">
-        <v>1.995282649993894</v>
+        <v>1.058028712868691</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.4393689632415791</v>
+        <v>0.1868795156478872</v>
       </c>
       <c r="B18" t="n">
-        <v>3.92675977945327</v>
+        <v>3.352623224258432</v>
       </c>
       <c r="C18" t="n">
-        <v>1.474137753248212</v>
+        <v>1.056536458432678</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.5461759567260746</v>
+        <v>-0.04321670532226736</v>
       </c>
       <c r="B19" t="n">
-        <v>4.010827064514163</v>
+        <v>5.682518005371086</v>
       </c>
       <c r="C19" t="n">
-        <v>1.266485691070556</v>
+        <v>1.995282649993894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.5815373659133911</v>
+        <v>-0.4393689632415791</v>
       </c>
       <c r="B20" t="n">
-        <v>4.265253961086274</v>
+        <v>3.92675977945327</v>
       </c>
       <c r="C20" t="n">
-        <v>1.277935206890107</v>
+        <v>1.474137753248212</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.6244049072265626</v>
+        <v>-0.5461759567260746</v>
       </c>
       <c r="B21" t="n">
-        <v>4.094969987869262</v>
+        <v>4.010827064514163</v>
       </c>
       <c r="C21" t="n">
-        <v>1.419118702411652</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.600552678108215</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.905791997909546</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.436552673578261</v>
+        <v>1.266485691070556</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-37/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-37/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-2.025566756725311</v>
+        <v>-2.203232884407044</v>
       </c>
       <c r="B2" t="n">
-        <v>3.52062651515007</v>
+        <v>3.565518021583557</v>
       </c>
       <c r="C2" t="n">
-        <v>2.27691987156868</v>
+        <v>2.421210885047912</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-2.230706214904786</v>
+        <v>-2.176557183265686</v>
       </c>
       <c r="B3" t="n">
-        <v>3.561713695526123</v>
+        <v>3.694440901279449</v>
       </c>
       <c r="C3" t="n">
-        <v>2.031704187393189</v>
+        <v>2.333479553461074</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-2.475497364997865</v>
+        <v>-2.326471328735352</v>
       </c>
       <c r="B4" t="n">
-        <v>3.523229420185089</v>
+        <v>3.527873754501343</v>
       </c>
       <c r="C4" t="n">
-        <v>2.537566900253297</v>
+        <v>2.532370328903198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-2.48767375946045</v>
+        <v>-2.219938099384308</v>
       </c>
       <c r="B5" t="n">
-        <v>3.061535835266112</v>
+        <v>3.655792444944382</v>
       </c>
       <c r="C5" t="n">
-        <v>3.86157149076462</v>
+        <v>2.356739014387131</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-2.442349374294281</v>
+        <v>-2.15459930896759</v>
       </c>
       <c r="B6" t="n">
-        <v>2.902286112308502</v>
+        <v>3.624111294746399</v>
       </c>
       <c r="C6" t="n">
-        <v>4.137762367725372</v>
+        <v>2.422300338745117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-2.809046030044556</v>
+        <v>-2.086719453334808</v>
       </c>
       <c r="B7" t="n">
-        <v>1.600962877273557</v>
+        <v>3.556297302246094</v>
       </c>
       <c r="C7" t="n">
-        <v>4.795935153961183</v>
+        <v>2.323985010385513</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-3.426159977912904</v>
+        <v>-2.057324409484864</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.2882512211799662</v>
+        <v>3.517749786376953</v>
       </c>
       <c r="C8" t="n">
-        <v>5.237384021282194</v>
+        <v>2.224772691726685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.615099787712106</v>
+        <v>-2.064002573490143</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4410536289215286</v>
+        <v>3.512480080127716</v>
       </c>
       <c r="C9" t="n">
-        <v>4.911977410316469</v>
+        <v>2.171477824449539</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.570275843143422</v>
+        <v>-2.053778767585754</v>
       </c>
       <c r="B10" t="n">
-        <v>5.792195498943334</v>
+        <v>3.516274869441986</v>
       </c>
       <c r="C10" t="n">
-        <v>7.507518291473446</v>
+        <v>2.167593479156494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4.738878250122034</v>
+        <v>-2.025566756725311</v>
       </c>
       <c r="B11" t="n">
-        <v>7.207733154296871</v>
+        <v>3.52062651515007</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9623451232909</v>
+        <v>2.27691987156868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.471131086349493</v>
+        <v>-2.230706214904786</v>
       </c>
       <c r="B12" t="n">
-        <v>6.420480489730835</v>
+        <v>3.561713695526123</v>
       </c>
       <c r="C12" t="n">
-        <v>-4.152171969413772</v>
+        <v>2.031704187393189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.357546925544736</v>
+        <v>-2.475497364997865</v>
       </c>
       <c r="B13" t="n">
-        <v>3.453876137733455</v>
+        <v>3.523229420185089</v>
       </c>
       <c r="C13" t="n">
-        <v>3.317040443420424</v>
+        <v>2.537566900253297</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.1309916377067535</v>
+        <v>-2.48767375946045</v>
       </c>
       <c r="B14" t="n">
-        <v>3.795689940452578</v>
+        <v>3.061535835266112</v>
       </c>
       <c r="C14" t="n">
-        <v>3.876870155334465</v>
+        <v>3.86157149076462</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.2815589904785198</v>
+        <v>-2.442349374294281</v>
       </c>
       <c r="B15" t="n">
-        <v>4.85230040550232</v>
+        <v>2.902286112308502</v>
       </c>
       <c r="C15" t="n">
-        <v>2.205311059951784</v>
+        <v>4.137762367725372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-1.535586237907411</v>
+        <v>-2.809046030044556</v>
       </c>
       <c r="B16" t="n">
-        <v>4.95532476902008</v>
+        <v>1.600962877273557</v>
       </c>
       <c r="C16" t="n">
-        <v>1.937351673841474</v>
+        <v>4.795935153961183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-1.377771139144897</v>
+        <v>-3.426159977912904</v>
       </c>
       <c r="B17" t="n">
-        <v>4.249351501464844</v>
+        <v>-0.2882512211799662</v>
       </c>
       <c r="C17" t="n">
-        <v>1.058028712868691</v>
+        <v>5.237384021282194</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.1868795156478872</v>
+        <v>-4.615099787712106</v>
       </c>
       <c r="B18" t="n">
-        <v>3.352623224258432</v>
+        <v>0.4410536289215286</v>
       </c>
       <c r="C18" t="n">
-        <v>1.056536458432678</v>
+        <v>4.911977410316469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.04321670532226736</v>
+        <v>-5.570275843143422</v>
       </c>
       <c r="B19" t="n">
-        <v>5.682518005371086</v>
+        <v>5.792195498943334</v>
       </c>
       <c r="C19" t="n">
-        <v>1.995282649993894</v>
+        <v>7.507518291473446</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.4393689632415791</v>
+        <v>4.738878250122034</v>
       </c>
       <c r="B20" t="n">
-        <v>3.92675977945327</v>
+        <v>7.207733154296871</v>
       </c>
       <c r="C20" t="n">
-        <v>1.474137753248212</v>
+        <v>21.9623451232909</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-3.471131086349493</v>
+      </c>
+      <c r="B21" t="n">
+        <v>6.420480489730835</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-4.152171969413772</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-2.357546925544736</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.453876137733455</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3.317040443420424</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.1309916377067535</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.795689940452578</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3.876870155334465</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.2815589904785198</v>
+      </c>
+      <c r="B24" t="n">
+        <v>4.85230040550232</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.205311059951784</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.535586237907411</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.95532476902008</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.937351673841474</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.377771139144897</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4.249351501464844</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.058028712868691</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.1868795156478872</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.352623224258432</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.056536458432678</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.04321670532226736</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5.682518005371086</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.995282649993894</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.4393689632415791</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.92675977945327</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.474137753248212</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>-0.5461759567260746</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>4.010827064514163</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>1.266485691070556</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.5815373659133911</v>
+      </c>
+      <c r="B31" t="n">
+        <v>4.265253961086274</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.277935206890107</v>
       </c>
     </row>
   </sheetData>
